--- a/sodoku/sudoku_present.xlsx
+++ b/sodoku/sudoku_present.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Traditional-Games-Solvers\sodoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369FF162-3162-4FF8-B42F-8FC9A56B2D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99078E4-E7D9-4388-8095-93493A3811EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7644" yWindow="2652" windowWidth="16464" windowHeight="9420" xr2:uid="{2BDA896E-BA7D-47DE-B6B2-3021BEC2C93E}"/>
+    <workbookView xWindow="7440" yWindow="1236" windowWidth="11232" windowHeight="9420" xr2:uid="{2BDA896E-BA7D-47DE-B6B2-3021BEC2C93E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,206 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+  <si>
+    <t>2,4,(6),7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2),7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1),7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,(4),6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,6,(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4),7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,(7),8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3),7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5),7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,7,(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2),6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,(5),7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,(6),7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1),5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3),6,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6),8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,(8),9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6),8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3),9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,(5),6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,(4),5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1),6,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2),3,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6),7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3),6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5),8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2),5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,6,(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,(6),7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,8,(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3),5,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5),6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7),8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,(8),9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,(5),9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2),5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1),5,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,10 +258,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="8"/>
       <color theme="6"/>
       <name val="Bahnschrift SemiBold SemiConden"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="6"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,29 +484,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,19 +831,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="10" width="5.77734375" customWidth="1"/>
+    <col min="12" max="20" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.4" thickBot="1"/>
-    <row r="2" spans="2:10" ht="30" customHeight="1">
+    <row r="1" spans="2:20" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:20" ht="30" customHeight="1">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -648,7 +860,7 @@
       <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="14">
         <v>5</v>
       </c>
       <c r="H2" s="4">
@@ -660,8 +872,35 @@
       <c r="J2" s="3">
         <v>9</v>
       </c>
+      <c r="L2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15">
+        <v>5</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1">
+        <v>3</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1">
+    <row r="3" spans="2:20" ht="30" customHeight="1">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -680,7 +919,7 @@
       <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="5">
         <v>7</v>
       </c>
       <c r="I3" s="6">
@@ -689,37 +928,91 @@
       <c r="J3" s="7">
         <v>5</v>
       </c>
+      <c r="L3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>9</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>6</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="2:20" ht="30" customHeight="1" thickBot="1">
       <c r="B4" s="10">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="16">
         <v>3</v>
       </c>
       <c r="D4" s="12">
         <v>5</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="10">
         <v>4</v>
       </c>
       <c r="F4" s="11">
         <v>7</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>9</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="10">
         <v>1</v>
       </c>
       <c r="I4" s="11">
         <v>6</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>2</v>
       </c>
+      <c r="L4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>4</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="12">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1">
+    <row r="5" spans="2:20" ht="30" customHeight="1" thickBot="1">
       <c r="B5" s="4">
         <v>9</v>
       </c>
@@ -729,26 +1022,53 @@
       <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="2">
         <v>6</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="14">
         <v>8</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="2">
         <v>7</v>
       </c>
       <c r="J5" s="3">
         <v>4</v>
       </c>
+      <c r="L5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3">
+        <v>4</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1">
+    <row r="6" spans="2:20" ht="30" customHeight="1">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -773,40 +1093,94 @@
       <c r="I6" s="6">
         <v>9</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="9">
         <v>8</v>
       </c>
+      <c r="L6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="2:20" ht="30" customHeight="1" thickBot="1">
       <c r="B7" s="13">
         <v>7</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="16">
         <v>5</v>
       </c>
       <c r="D7" s="12">
         <v>8</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>9</v>
       </c>
-      <c r="G7" s="19">
-        <v>4</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="17">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10">
         <v>6</v>
       </c>
       <c r="I7" s="16">
         <v>3</v>
       </c>
-      <c r="J7" s="19">
-        <v>1</v>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>5</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="13">
+        <v>8</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1">
+    <row r="8" spans="2:20" ht="30" customHeight="1">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -828,14 +1202,41 @@
       <c r="H8" s="1">
         <v>8</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="14">
         <v>3</v>
       </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="15">
+        <v>9</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1">
+    <row r="9" spans="2:20" ht="30" customHeight="1">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -863,8 +1264,35 @@
       <c r="J9" s="9">
         <v>7</v>
       </c>
+      <c r="L9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>7</v>
+      </c>
+      <c r="R9" s="8">
+        <v>4</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="2:20" ht="30" customHeight="1" thickBot="1">
       <c r="B10" s="13">
         <v>3</v>
       </c>
@@ -892,6 +1320,36 @@
       <c r="J10" s="12">
         <v>6</v>
       </c>
+      <c r="L10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="12">
+        <v>6</v>
+      </c>
+      <c r="O10" s="13">
+        <v>4</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="11">
+        <v>3</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
